--- a/documentation/Item-level-calculation.xlsx
+++ b/documentation/Item-level-calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,29 +478,29 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C51" si="0">A3/4</f>
+        <f t="shared" ref="C3:C63" si="0">A3/4</f>
         <v>0.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" si="1">1.4^C3</f>
+        <f t="shared" ref="D3:D63" si="1">1.4^C3</f>
         <v>1.1832159566199232</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" si="2">1/D3</f>
+        <f t="shared" ref="E3:E63" si="2">1/D3</f>
         <v>0.84515425472851657</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F51" si="3">100*E3</f>
+        <f t="shared" ref="F3:F63" si="3">100*E3</f>
         <v>84.515425472851661</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A51" si="4">A3+1</f>
+        <f t="shared" ref="A4:A63" si="4">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B3:B51" si="5">A4*2.5</f>
+        <f t="shared" ref="B3:B63" si="5">A4*2.5</f>
         <v>7.5</v>
       </c>
       <c r="C4">
@@ -1733,6 +1740,318 @@
       <c r="F51">
         <f t="shared" si="3"/>
         <v>1.4907319310296661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>127.5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>72.968002046212987</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>1.3704637265066787E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>1.3704637265066786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>79.371477325414318</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>1.2598984341693806E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>1.2598984341693806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>132.5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>86.33690434375437</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>1.1582532494082181E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>1.1582532494082181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>93.913598471926733</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="2"/>
+        <v>1.064808522164047E-2</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0648085221640469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>137.5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>102.15520286469818</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>9.7890266179048464E-3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>0.97890266179048468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>111.12006825558004</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>8.9992745297812916E-3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>0.89992745297812915</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>142.5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>120.87166608125612</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>8.2732374957729862E-3</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>0.82732374957729859</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>131.47903786069742</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>7.6057751583146213E-3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>0.76057751583146216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>147.5</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>14.75</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>143.01728401057747</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>6.9921618699320329E-3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>0.69921618699320331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>155.56809555781203</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>6.4280532355580657E-3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0.64280532355580655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>152.5</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>169.22033251375859</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>5.9094553541235604E-3</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>0.59094553541235606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>184.07065300497638</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>5.4326965416533011E-3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>0.54326965416533013</v>
       </c>
     </row>
   </sheetData>
